--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E2EE9C-1B44-4EA7-BCB6-E08A1B4DE44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486FE8E-0C7F-4B9D-9E10-9250FE84C73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{676AC17B-5DE7-436C-9EE7-81D0F2F9C4B5}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{AE00ABE6-6147-4EA7-8486-B75B94A1DEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF94319-FB31-4E36-B94A-186BCDF9D9B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA565D5-A24A-4ED1-B460-50859EA75BAC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486FE8E-0C7F-4B9D-9E10-9250FE84C73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C896A-8925-4595-A9FA-A1C61824C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{AE00ABE6-6147-4EA7-8486-B75B94A1DEC5}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{C5B86A07-2C98-41C5-8B89-30B9AFA12710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA565D5-A24A-4ED1-B460-50859EA75BAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535309E1-9F51-4CB8-B2C0-BA02A5D4B090}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2.3372582178497079</v>
+        <v>2.4177278018628061</v>
       </c>
     </row>
   </sheetData>
